--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,23 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>قيمة جديدة 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>قيمة جديدة 2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>قيمة جديدة 3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,28 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mohamed</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0299</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,6 +612,28 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mohamed</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0299</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
